--- a/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{357C7FAC-170D-445F-B315-1E8D66143441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{396D3956-FED4-4B7D-9CF3-FD7D8450549D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33AAA012-DB37-4C49-A94A-06674AC62E87}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2A722B7-2159-4899-8F82-2B7BFEAAD37D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="585">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2007 (Tasa respuesta: 94,98%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>12,66%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>De 1 a 4 horas</t>
@@ -125,28 +125,28 @@
     <t>27,71%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>Menos de una hora</t>
@@ -155,25 +155,25 @@
     <t>30,3%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>28,63%</t>
+    <t>28,49%</t>
   </si>
   <si>
     <t>32,33%</t>
@@ -185,16 +185,16 @@
     <t>29,33%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>46,22%</t>
+    <t>46,29%</t>
   </si>
   <si>
     <t>51,83%</t>
@@ -203,10 +203,10 @@
     <t>40,42%</t>
   </si>
   <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,1504 +227,1483 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>46,31%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
   </si>
   <si>
     <t>44,97%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>25,7%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2012 (Tasa respuesta: 96,8%)</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2012 (Tasa respuesta: 96,8%)</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
     <t>0,02%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -1733,7 +1712,7 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -1742,76 +1721,79 @@
     <t>6,54%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>10,7%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>11,76%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1073E0A-074B-4163-910A-7EF1A06FC506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29D5788-BD76-403C-AF7B-916043CB66ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3200,10 +3182,10 @@
         <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3304,13 @@
         <v>429118</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>261</v>
@@ -3337,13 +3319,13 @@
         <v>265545</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>677</v>
@@ -3352,13 +3334,13 @@
         <v>694664</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3355,13 @@
         <v>1276328</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>1065</v>
@@ -3388,13 +3370,13 @@
         <v>1079730</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>2318</v>
@@ -3403,13 +3385,13 @@
         <v>2356058</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3406,13 @@
         <v>796820</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>872</v>
@@ -3439,13 +3421,13 @@
         <v>903384</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>1642</v>
@@ -3454,13 +3436,13 @@
         <v>1700204</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3457,13 @@
         <v>614425</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>931</v>
@@ -3490,13 +3472,13 @@
         <v>958302</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>1547</v>
@@ -3505,13 +3487,13 @@
         <v>1572728</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3549,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1D2474-97B1-4125-A403-36A5B947524F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014C7BD-93FF-498B-8314-72DF5840D2DC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3603,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3761,13 +3743,13 @@
         <v>23036</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -3776,13 +3758,13 @@
         <v>16301</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3791,13 +3773,13 @@
         <v>39337</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3794,13 @@
         <v>24496</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -3827,13 +3809,13 @@
         <v>32152</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -3842,13 +3824,13 @@
         <v>56648</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3845,13 @@
         <v>71603</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -3899,7 +3881,7 @@
         <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3896,13 @@
         <v>839014</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>1098</v>
@@ -3929,13 +3911,13 @@
         <v>1179432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>1880</v>
@@ -3944,13 +3926,13 @@
         <v>2018447</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4069,13 +4051,13 @@
         <v>60065</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4084,13 +4066,13 @@
         <v>45301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -4099,13 +4081,13 @@
         <v>105366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4102,13 @@
         <v>152560</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>114</v>
@@ -4135,13 +4117,13 @@
         <v>116204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>257</v>
@@ -4449,7 +4431,7 @@
         <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -4458,13 +4440,13 @@
         <v>58825</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4461,13 @@
         <v>80295</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4494,13 +4476,13 @@
         <v>64095</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4509,13 +4491,13 @@
         <v>144390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4512,13 @@
         <v>348801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>306</v>
@@ -4545,13 +4527,13 @@
         <v>339147</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>614</v>
@@ -4560,13 +4542,13 @@
         <v>687949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,7 +4652,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4667,13 @@
         <v>91982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -4703,10 +4685,10 @@
         <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>157</v>
@@ -4715,13 +4697,13 @@
         <v>160274</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4718,13 @@
         <v>207545</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
@@ -4751,13 +4733,13 @@
         <v>176692</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>365</v>
@@ -4766,13 +4748,13 @@
         <v>384237</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4769,13 @@
         <v>427529</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>333</v>
@@ -4802,13 +4784,13 @@
         <v>357640</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -4817,13 +4799,13 @@
         <v>785169</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,28 +4820,28 @@
         <v>2596921</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>2609</v>
       </c>
       <c r="I26" s="7">
-        <v>2829419</v>
+        <v>2829418</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>5020</v>
@@ -4868,13 +4850,13 @@
         <v>5426340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4883,7 @@
         <v>3177</v>
       </c>
       <c r="I27" s="7">
-        <v>3432042</v>
+        <v>3432041</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -4930,7 +4912,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7995B9D-E44C-4296-A84F-DFE369317C54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72939628-A242-4A97-BBE3-3F6275B3A815}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4966,7 +4948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5079,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5094,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5124,13 +5106,13 @@
         <v>23577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5139,13 +5121,13 @@
         <v>22864</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -5154,13 +5136,13 @@
         <v>46441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5157,13 @@
         <v>41357</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -5190,13 +5172,13 @@
         <v>46932</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>84</v>
@@ -5205,13 +5187,13 @@
         <v>88288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5208,13 @@
         <v>89944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -5241,13 +5223,13 @@
         <v>67580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>146</v>
@@ -5256,13 +5238,13 @@
         <v>157524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,28 +5259,28 @@
         <v>576110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>733</v>
       </c>
       <c r="I8" s="7">
-        <v>818977</v>
+        <v>818976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>1324</v>
@@ -5307,13 +5289,13 @@
         <v>1395088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,7 +5322,7 @@
         <v>858</v>
       </c>
       <c r="I9" s="7">
-        <v>956353</v>
+        <v>956352</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -5387,7 +5369,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5402,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5417,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5414,13 @@
         <v>91245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -5447,13 +5429,13 @@
         <v>80159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>159</v>
@@ -5462,13 +5444,13 @@
         <v>171404</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5465,13 @@
         <v>203259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>169</v>
@@ -5498,13 +5480,13 @@
         <v>174452</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>359</v>
@@ -5513,13 +5495,13 @@
         <v>377711</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5516,13 @@
         <v>417104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>374</v>
@@ -5549,13 +5531,13 @@
         <v>388887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>764</v>
@@ -5564,13 +5546,13 @@
         <v>805991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5567,13 @@
         <v>1328716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>1246</v>
@@ -5600,28 +5582,28 @@
         <v>1301452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>2503</v>
       </c>
       <c r="N14" s="7">
-        <v>2630169</v>
+        <v>2630168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,7 +5645,7 @@
         <v>3785</v>
       </c>
       <c r="N15" s="7">
-        <v>3985275</v>
+        <v>3985274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -5695,7 +5677,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5710,7 +5692,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5725,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5722,13 @@
         <v>10827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5755,13 +5737,13 @@
         <v>19454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5770,13 +5752,13 @@
         <v>30281</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5773,13 @@
         <v>36524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -5806,13 +5788,13 @@
         <v>30546</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -5821,13 +5803,13 @@
         <v>67070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5824,13 @@
         <v>87883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -5857,13 +5839,13 @@
         <v>98793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -5872,13 +5854,13 @@
         <v>186676</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5875,13 @@
         <v>398903</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>371</v>
@@ -5908,13 +5890,13 @@
         <v>389397</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>736</v>
@@ -5923,13 +5905,13 @@
         <v>788300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6015,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6030,13 @@
         <v>125649</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>118</v>
@@ -6063,13 +6045,13 @@
         <v>122477</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -6078,13 +6060,13 @@
         <v>248126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6081,13 @@
         <v>281140</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>243</v>
@@ -6114,13 +6096,13 @@
         <v>251929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>506</v>
@@ -6129,13 +6111,13 @@
         <v>533069</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6132,13 @@
         <v>594931</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>528</v>
@@ -6165,13 +6147,13 @@
         <v>555260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>1086</v>
@@ -6180,13 +6162,13 @@
         <v>1150191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6183,13 @@
         <v>2303729</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>2350</v>
@@ -6216,13 +6198,13 @@
         <v>2509826</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>4563</v>
@@ -6231,13 +6213,13 @@
         <v>4813555</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,7 +6275,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3D0CF-B4F9-4738-8DDE-1405BF1E2180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35849CBB-4A0A-4605-8641-444D03DCDA92}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6329,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6442,7 +6424,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6457,7 +6439,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6487,13 +6469,13 @@
         <v>10608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -6502,13 +6484,13 @@
         <v>10808</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -6517,13 +6499,13 @@
         <v>21416</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6520,13 @@
         <v>33239</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6553,13 +6535,13 @@
         <v>18742</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>463</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -6568,13 +6550,13 @@
         <v>51981</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6571,13 @@
         <v>53185</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -6604,13 +6586,13 @@
         <v>47371</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -6619,13 +6601,13 @@
         <v>100556</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6622,13 @@
         <v>443843</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>1300</v>
@@ -6655,13 +6637,13 @@
         <v>752637</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M8" s="7">
         <v>1883</v>
@@ -6670,13 +6652,13 @@
         <v>1196479</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6732,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6765,7 +6747,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6780,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6777,13 @@
         <v>21601</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>495</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -6810,13 +6792,13 @@
         <v>26983</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -6825,13 +6807,13 @@
         <v>48585</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,10 +6831,10 @@
         <v>500</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H12" s="7">
         <v>150</v>
@@ -6861,13 +6843,13 @@
         <v>115234</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>503</v>
+        <v>296</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>505</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>278</v>
@@ -6876,13 +6858,13 @@
         <v>269786</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6879,13 @@
         <v>273483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>508</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="H13" s="7">
         <v>374</v>
@@ -6912,13 +6894,13 @@
         <v>242223</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>630</v>
@@ -6927,13 +6909,13 @@
         <v>515706</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6930,13 @@
         <v>1704955</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>2353</v>
@@ -6963,13 +6945,13 @@
         <v>1855701</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>3933</v>
@@ -6978,13 +6960,13 @@
         <v>3560656</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,7 +7040,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7073,7 +7055,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7088,7 +7070,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7085,13 @@
         <v>5509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -7118,13 +7100,13 @@
         <v>5389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -7133,13 +7115,13 @@
         <v>10898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,13 +7136,13 @@
         <v>32311</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>533</v>
+        <v>254</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -7169,13 +7151,13 @@
         <v>30803</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -7184,13 +7166,13 @@
         <v>63114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>535</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7187,13 @@
         <v>73507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -7220,13 +7202,13 @@
         <v>86552</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>545</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -7235,13 +7217,13 @@
         <v>160059</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7238,13 @@
         <v>557017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>833</v>
@@ -7271,13 +7253,13 @@
         <v>589139</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>1408</v>
@@ -7286,13 +7268,13 @@
         <v>1146156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,7 +7363,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7396,7 +7378,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7393,13 @@
         <v>37718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>560</v>
+        <v>179</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -7426,13 +7408,13 @@
         <v>43180</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>523</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -7441,13 +7423,13 @@
         <v>80898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7444,13 @@
         <v>220102</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>222</v>
@@ -7477,13 +7459,13 @@
         <v>164779</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>563</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M24" s="7">
         <v>411</v>
@@ -7492,13 +7474,13 @@
         <v>384881</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7495,13 @@
         <v>400175</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>566</v>
@@ -7528,28 +7510,28 @@
         <v>376146</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>954</v>
       </c>
       <c r="N25" s="7">
-        <v>776320</v>
+        <v>776321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7546,13 @@
         <v>2705814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H26" s="7">
         <v>4486</v>
@@ -7579,13 +7561,13 @@
         <v>3197477</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>7224</v>
@@ -7594,13 +7576,13 @@
         <v>5903291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,7 +7624,7 @@
         <v>8682</v>
       </c>
       <c r="N27" s="7">
-        <v>7145390</v>
+        <v>7145391</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -7656,7 +7638,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{396D3956-FED4-4B7D-9CF3-FD7D8450549D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ADF4433-E18D-4E77-96DC-B9DF01E8152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2A722B7-2159-4899-8F82-2B7BFEAAD37D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98BA366E-73CF-4F3D-B14D-8E6036B9AC5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="581">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2007 (Tasa respuesta: 94,98%)</t>
   </si>
@@ -95,19 +95,19 @@
     <t>12,66%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>8,13%</t>
@@ -116,7 +116,7 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>9,36%</t>
+    <t>9,29%</t>
   </si>
   <si>
     <t>De 1 a 4 horas</t>
@@ -125,28 +125,28 @@
     <t>27,71%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>Menos de una hora</t>
@@ -155,28 +155,28 @@
     <t>30,3%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -185,28 +185,28 @@
     <t>29,33%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,19 +227,19 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>13,3%</t>
@@ -248,88 +248,88 @@
     <t>12,13%</t>
   </si>
   <si>
-    <t>14,58%</t>
+    <t>14,42%</t>
   </si>
   <si>
     <t>46,31%</t>
   </si>
   <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>44,97%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -347,106 +347,106 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>24,28%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>17,6%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -455,16 +455,16 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>7,35%</t>
+    <t>7,36%</t>
   </si>
   <si>
     <t>9,25%</t>
@@ -482,82 +482,79 @@
     <t>40,95%</t>
   </si>
   <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>33,67%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
   </si>
   <si>
     <t>25,57%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>24,08%</t>
   </si>
   <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -569,1140 +566,1140 @@
     <t>2,4%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2016 (Tasa respuesta: 97,64%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>1,59%</t>
   </si>
   <si>
@@ -1730,18 +1727,12 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
     <t>5,04%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
     <t>6,0%</t>
   </si>
   <si>
@@ -1758,9 +1749,6 @@
   </si>
   <si>
     <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -2205,7 +2193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29D5788-BD76-403C-AF7B-916043CB66ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA91AFB-6DEB-4B00-B2F6-08F990E2A1BF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3134,7 +3122,7 @@
         <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3137,13 @@
         <v>90155</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -3164,13 +3152,13 @@
         <v>55189</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -3179,10 +3167,10 @@
         <v>145344</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>135</v>
@@ -3301,7 +3289,7 @@
         <v>416</v>
       </c>
       <c r="D23" s="7">
-        <v>429118</v>
+        <v>429119</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>137</v>
@@ -3352,7 +3340,7 @@
         <v>1253</v>
       </c>
       <c r="D24" s="7">
-        <v>1276328</v>
+        <v>1276329</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>146</v>
@@ -3412,7 +3400,7 @@
         <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="H25" s="7">
         <v>872</v>
@@ -3421,13 +3409,13 @@
         <v>903384</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>1642</v>
@@ -3436,13 +3424,13 @@
         <v>1700204</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,16 +3442,16 @@
         <v>616</v>
       </c>
       <c r="D26" s="7">
-        <v>614425</v>
+        <v>614426</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>931</v>
@@ -3472,13 +3460,13 @@
         <v>958302</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1547</v>
@@ -3487,13 +3475,13 @@
         <v>1572728</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3493,7 @@
         <v>3055</v>
       </c>
       <c r="D27" s="7">
-        <v>3116692</v>
+        <v>3116693</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>56</v>
@@ -3549,7 +3537,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014C7BD-93FF-498B-8314-72DF5840D2DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD5D3EF-CCBC-433A-B75D-BD9DE2AA5EFE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3743,13 +3731,13 @@
         <v>23036</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -3758,13 +3746,13 @@
         <v>16301</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3773,13 +3761,13 @@
         <v>39337</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3782,13 @@
         <v>24496</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -3809,13 +3797,13 @@
         <v>32152</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -3824,13 +3812,13 @@
         <v>56648</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3833,13 @@
         <v>71603</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>67</v>
@@ -3860,13 +3848,13 @@
         <v>71327</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -3875,13 +3863,13 @@
         <v>142930</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3884,13 @@
         <v>839014</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>1098</v>
@@ -3911,13 +3899,13 @@
         <v>1179432</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>1880</v>
@@ -3926,13 +3914,13 @@
         <v>2018447</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4051,13 +4039,13 @@
         <v>60065</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4066,13 +4054,13 @@
         <v>45301</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -4081,13 +4069,13 @@
         <v>105366</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4090,13 @@
         <v>152560</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>114</v>
@@ -4117,10 +4105,10 @@
         <v>116204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>23</v>
@@ -4132,13 +4120,13 @@
         <v>268764</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4141,13 @@
         <v>275631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>210</v>
@@ -4168,13 +4156,13 @@
         <v>222218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -4183,13 +4171,13 @@
         <v>497849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4192,13 @@
         <v>1409107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>1205</v>
@@ -4219,13 +4207,13 @@
         <v>1310839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>2526</v>
@@ -4234,13 +4222,13 @@
         <v>2719945</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4302,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4329,7 +4317,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4344,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4347,13 @@
         <v>8882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4374,13 +4362,13 @@
         <v>6689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4389,13 +4377,13 @@
         <v>15571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4398,13 @@
         <v>30489</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -4425,13 +4413,13 @@
         <v>28336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -4440,13 +4428,13 @@
         <v>58825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4449,13 @@
         <v>80295</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4476,13 +4464,13 @@
         <v>64095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4491,13 +4479,13 @@
         <v>144390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4500,13 @@
         <v>348801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>306</v>
@@ -4527,13 +4515,13 @@
         <v>339147</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>614</v>
@@ -4542,13 +4530,13 @@
         <v>687949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4655,13 @@
         <v>91982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -4682,13 +4670,13 @@
         <v>68291</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>157</v>
@@ -4697,13 +4685,13 @@
         <v>160274</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4793,7 @@
         <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,28 +4808,28 @@
         <v>2596921</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>2609</v>
       </c>
       <c r="I26" s="7">
-        <v>2829418</v>
+        <v>2829419</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>5020</v>
@@ -4850,13 +4838,13 @@
         <v>5426340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,7 +4871,7 @@
         <v>3177</v>
       </c>
       <c r="I27" s="7">
-        <v>3432041</v>
+        <v>3432042</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -4912,7 +4900,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +4919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72939628-A242-4A97-BBE3-3F6275B3A815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2BEAC2-F9C1-46D8-B1DF-4749EEBB9991}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4948,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5061,7 +5049,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5076,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5106,13 +5094,13 @@
         <v>23577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5121,13 +5109,13 @@
         <v>22864</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -5136,13 +5124,13 @@
         <v>46441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5145,13 @@
         <v>41357</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -5172,13 +5160,13 @@
         <v>46932</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M6" s="7">
         <v>84</v>
@@ -5187,13 +5175,13 @@
         <v>88288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5196,13 @@
         <v>89944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -5223,13 +5211,13 @@
         <v>67580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>146</v>
@@ -5238,13 +5226,13 @@
         <v>157524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5247,13 @@
         <v>576110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>733</v>
@@ -5274,13 +5262,13 @@
         <v>818976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>1324</v>
@@ -5289,13 +5277,13 @@
         <v>1395088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5384,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5399,7 +5387,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5402,13 @@
         <v>91245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -5429,13 +5417,13 @@
         <v>80159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>159</v>
@@ -5444,13 +5432,13 @@
         <v>171404</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5453,13 @@
         <v>203259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>169</v>
@@ -5480,13 +5468,13 @@
         <v>174452</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>359</v>
@@ -5495,7 +5483,7 @@
         <v>377711</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>131</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>367</v>
@@ -5594,7 +5582,7 @@
         <v>2503</v>
       </c>
       <c r="N14" s="7">
-        <v>2630168</v>
+        <v>2630169</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>384</v>
@@ -5645,7 +5633,7 @@
         <v>3785</v>
       </c>
       <c r="N15" s="7">
-        <v>3985274</v>
+        <v>3985275</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -5722,13 +5710,13 @@
         <v>10827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5737,13 +5725,13 @@
         <v>19454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5752,13 +5740,13 @@
         <v>30281</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,7 +6024,7 @@
         <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>118</v>
@@ -6045,13 +6033,13 @@
         <v>122477</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -6060,10 +6048,10 @@
         <v>248126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>427</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>428</v>
@@ -6153,7 +6141,7 @@
         <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>1086</v>
@@ -6162,13 +6150,13 @@
         <v>1150191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6171,13 @@
         <v>2303729</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>2350</v>
@@ -6198,13 +6186,13 @@
         <v>2509826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>4563</v>
@@ -6213,13 +6201,13 @@
         <v>4813555</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,7 +6263,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6294,7 +6282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35849CBB-4A0A-4605-8641-444D03DCDA92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE39B52-68D1-4235-9C60-6C5FA55CD9C2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6311,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6424,7 +6412,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6439,7 +6427,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6469,13 +6457,13 @@
         <v>10608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -6484,13 +6472,13 @@
         <v>10808</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -6499,13 +6487,13 @@
         <v>21416</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6508,13 @@
         <v>33239</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6535,13 +6523,13 @@
         <v>18742</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -6550,13 +6538,13 @@
         <v>51981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6559,13 @@
         <v>53185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>474</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -6586,13 +6574,13 @@
         <v>47371</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>477</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -6732,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6783,7 +6771,7 @@
         <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -6828,13 +6816,13 @@
         <v>154552</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H12" s="7">
         <v>150</v>
@@ -6843,7 +6831,7 @@
         <v>115234</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>502</v>
@@ -6879,13 +6867,13 @@
         <v>273483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>506</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H13" s="7">
         <v>374</v>
@@ -6894,13 +6882,13 @@
         <v>242223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M13" s="7">
         <v>630</v>
@@ -6909,7 +6897,7 @@
         <v>515706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>511</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>512</v>
@@ -7040,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7070,7 +7058,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,7 +7079,7 @@
         <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -7100,13 +7088,13 @@
         <v>5389</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -7139,10 +7127,10 @@
         <v>529</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>254</v>
+        <v>530</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -7151,13 +7139,13 @@
         <v>30803</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>531</v>
+        <v>195</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -7166,13 +7154,13 @@
         <v>63114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>535</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>536</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7175,13 @@
         <v>73507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -7202,13 +7190,13 @@
         <v>86552</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -7217,13 +7205,13 @@
         <v>160059</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7226,13 @@
         <v>557017</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>833</v>
@@ -7256,10 +7244,10 @@
         <v>522</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>1408</v>
@@ -7268,13 +7256,13 @@
         <v>1146156</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7381,13 @@
         <v>37718</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -7408,13 +7396,13 @@
         <v>43180</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>523</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -7423,13 +7411,13 @@
         <v>80898</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7432,13 @@
         <v>220102</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>222</v>
@@ -7459,13 +7447,13 @@
         <v>164779</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M24" s="7">
         <v>411</v>
@@ -7474,13 +7462,13 @@
         <v>384881</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>566</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,10 +7483,10 @@
         <v>400175</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>67</v>
@@ -7510,13 +7498,13 @@
         <v>376146</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M25" s="7">
         <v>954</v>
@@ -7525,13 +7513,13 @@
         <v>776321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7534,13 @@
         <v>2705814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H26" s="7">
         <v>4486</v>
@@ -7561,13 +7549,13 @@
         <v>3197477</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="M26" s="7">
         <v>7224</v>
@@ -7576,13 +7564,13 @@
         <v>5903291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,7 +7626,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DC66B3-BBEE-4DE7-B3A8-F46C846E7AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5088421-DFA0-49FE-B1CA-F339973B85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C9CA7BC-CF59-460E-8090-58EF7D3D88D4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{38675357-B07C-4657-9ED5-19EE3C991432}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="553">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2007 (Tasa respuesta: 94,98%)</t>
   </si>
@@ -1340,394 +1340,364 @@
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,55%)</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04B2530-387F-4ED3-BB0C-2C1E7AF9695E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D56EAF-DD20-4571-BC56-9C999C50BDA2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2583,7 +2553,7 @@
         <v>671</v>
       </c>
       <c r="I10" s="7">
-        <v>678852</v>
+        <v>678853</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2685,7 +2655,7 @@
         <v>282</v>
       </c>
       <c r="I12" s="7">
-        <v>287938</v>
+        <v>287939</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2736,7 +2706,7 @@
         <v>1479</v>
       </c>
       <c r="I13" s="7">
-        <v>1509732</v>
+        <v>1509733</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3031,7 +3001,7 @@
         <v>416</v>
       </c>
       <c r="D19" s="7">
-        <v>429118</v>
+        <v>429119</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -3082,7 +3052,7 @@
         <v>1253</v>
       </c>
       <c r="D20" s="7">
-        <v>1276328</v>
+        <v>1276329</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -3163,7 +3133,7 @@
         <v>1642</v>
       </c>
       <c r="N21" s="7">
-        <v>1700204</v>
+        <v>1700203</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>149</v>
@@ -3184,7 +3154,7 @@
         <v>616</v>
       </c>
       <c r="D22" s="7">
-        <v>614425</v>
+        <v>614426</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>152</v>
@@ -3235,7 +3205,7 @@
         <v>3055</v>
       </c>
       <c r="D23" s="7">
-        <v>3116692</v>
+        <v>3116693</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -3265,7 +3235,7 @@
         <v>6184</v>
       </c>
       <c r="N23" s="7">
-        <v>6323654</v>
+        <v>6323653</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -3298,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9981B3-0465-418F-911A-981B55DC148A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F648F-1785-4854-BD23-EF7CBA287950}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4190,7 +4160,7 @@
         <v>91</v>
       </c>
       <c r="D19" s="7">
-        <v>91982</v>
+        <v>91983</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>266</v>
@@ -4241,7 +4211,7 @@
         <v>196</v>
       </c>
       <c r="D20" s="7">
-        <v>207545</v>
+        <v>207546</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>274</v>
@@ -4343,7 +4313,7 @@
         <v>2411</v>
       </c>
       <c r="D22" s="7">
-        <v>2596921</v>
+        <v>2596922</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>291</v>
@@ -4358,7 +4328,7 @@
         <v>2609</v>
       </c>
       <c r="I22" s="7">
-        <v>2829419</v>
+        <v>2829418</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>294</v>
@@ -4394,7 +4364,7 @@
         <v>3113</v>
       </c>
       <c r="D23" s="7">
-        <v>3323978</v>
+        <v>3323979</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4409,7 +4379,7 @@
         <v>3177</v>
       </c>
       <c r="I23" s="7">
-        <v>3432042</v>
+        <v>3432041</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -4457,7 +4427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96D362-DCD2-4041-B3EA-A76F2FCECC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01219F2E-D742-4912-9AB7-76694C32D842}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5616,7 +5586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCEE87C-34E8-4387-974B-D228F8DC5850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5A7D2F-8527-48E5-A4F5-2BD053CA3459}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5737,40 +5707,40 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>10608</v>
+        <v>9705</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>10808</v>
+        <v>9572</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>21416</v>
+        <v>19277</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>437</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>438</v>
@@ -5788,7 +5758,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>33239</v>
+        <v>33728</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>440</v>
@@ -5803,22 +5773,22 @@
         <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>18742</v>
+        <v>17684</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
       </c>
       <c r="N5" s="7">
-        <v>51981</v>
+        <v>51412</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>445</v>
@@ -5839,46 +5809,46 @@
         <v>59</v>
       </c>
       <c r="D6" s="7">
-        <v>53185</v>
+        <v>55969</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>70</v>
       </c>
       <c r="I6" s="7">
-        <v>47371</v>
+        <v>45263</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M6" s="7">
         <v>129</v>
       </c>
       <c r="N6" s="7">
-        <v>100556</v>
+        <v>101232</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,46 +5860,46 @@
         <v>583</v>
       </c>
       <c r="D7" s="7">
-        <v>443843</v>
+        <v>414806</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>1300</v>
       </c>
       <c r="I7" s="7">
-        <v>752637</v>
+        <v>677279</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>1883</v>
       </c>
       <c r="N7" s="7">
-        <v>1196479</v>
+        <v>1092086</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,7 +5911,7 @@
         <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>540874</v>
+        <v>514208</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5956,7 +5926,7 @@
         <v>1418</v>
       </c>
       <c r="I8" s="7">
-        <v>829558</v>
+        <v>749798</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5971,7 +5941,7 @@
         <v>2108</v>
       </c>
       <c r="N8" s="7">
-        <v>1370432</v>
+        <v>1264006</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5994,46 +5964,46 @@
         <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>21601</v>
+        <v>21001</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
       </c>
       <c r="I9" s="7">
-        <v>26983</v>
+        <v>23392</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
       </c>
       <c r="N9" s="7">
-        <v>48585</v>
+        <v>44393</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>471</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,46 +6015,46 @@
         <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>154552</v>
+        <v>159923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
       </c>
       <c r="I10" s="7">
-        <v>115234</v>
+        <v>109875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
       </c>
       <c r="N10" s="7">
-        <v>269786</v>
+        <v>269797</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,46 +6066,46 @@
         <v>256</v>
       </c>
       <c r="D11" s="7">
-        <v>273483</v>
+        <v>292560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>484</v>
       </c>
       <c r="H11" s="7">
         <v>374</v>
       </c>
       <c r="I11" s="7">
-        <v>242223</v>
+        <v>235232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>484</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
         <v>630</v>
       </c>
       <c r="N11" s="7">
-        <v>515706</v>
+        <v>527792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,46 +6117,46 @@
         <v>1580</v>
       </c>
       <c r="D12" s="7">
-        <v>1704955</v>
+        <v>1809609</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H12" s="7">
         <v>2353</v>
       </c>
       <c r="I12" s="7">
-        <v>1855701</v>
+        <v>1860536</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M12" s="7">
         <v>3933</v>
       </c>
       <c r="N12" s="7">
-        <v>3560656</v>
+        <v>3670146</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,7 +6168,7 @@
         <v>1986</v>
       </c>
       <c r="D13" s="7">
-        <v>2154591</v>
+        <v>2283092</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6213,7 +6183,7 @@
         <v>2907</v>
       </c>
       <c r="I13" s="7">
-        <v>2240141</v>
+        <v>2229035</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6228,7 +6198,7 @@
         <v>4893</v>
       </c>
       <c r="N13" s="7">
-        <v>4394732</v>
+        <v>4512128</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6251,46 +6221,46 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>5509</v>
+        <v>5233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>5389</v>
+        <v>4916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>10898</v>
+        <v>10149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,46 +6272,46 @@
         <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>32311</v>
+        <v>31986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>507</v>
+        <v>129</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
       </c>
       <c r="I15" s="7">
-        <v>30803</v>
+        <v>28232</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>508</v>
+        <v>316</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="M15" s="7">
         <v>66</v>
       </c>
       <c r="N15" s="7">
-        <v>63114</v>
+        <v>60219</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>511</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,46 +6323,46 @@
         <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>73507</v>
+        <v>75844</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
       </c>
       <c r="I16" s="7">
-        <v>86552</v>
+        <v>85927</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
       </c>
       <c r="N16" s="7">
-        <v>160059</v>
+        <v>161771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,46 +6374,46 @@
         <v>575</v>
       </c>
       <c r="D17" s="7">
-        <v>557017</v>
+        <v>524599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>833</v>
       </c>
       <c r="I17" s="7">
-        <v>589139</v>
+        <v>539607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M17" s="7">
         <v>1408</v>
       </c>
       <c r="N17" s="7">
-        <v>1146156</v>
+        <v>1064207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,7 +6425,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>668344</v>
+        <v>637662</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6470,7 +6440,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>711883</v>
+        <v>658682</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6485,7 +6455,7 @@
         <v>1681</v>
       </c>
       <c r="N18" s="7">
-        <v>1380227</v>
+        <v>1296345</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6508,46 +6478,46 @@
         <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>37718</v>
+        <v>35939</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>436</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
       </c>
       <c r="I19" s="7">
-        <v>43180</v>
+        <v>37880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
       </c>
       <c r="N19" s="7">
-        <v>80898</v>
+        <v>73819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,46 +6529,46 @@
         <v>189</v>
       </c>
       <c r="D20" s="7">
-        <v>220102</v>
+        <v>225637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
       </c>
       <c r="I20" s="7">
-        <v>164779</v>
+        <v>155791</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>535</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
       </c>
       <c r="N20" s="7">
-        <v>384881</v>
+        <v>381428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,46 +6580,46 @@
         <v>388</v>
       </c>
       <c r="D21" s="7">
-        <v>400175</v>
+        <v>424373</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>547</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H21" s="7">
         <v>566</v>
       </c>
       <c r="I21" s="7">
-        <v>376146</v>
+        <v>366421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>550</v>
+        <v>128</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="M21" s="7">
         <v>954</v>
       </c>
       <c r="N21" s="7">
-        <v>776320</v>
+        <v>790794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>553</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,46 +6631,46 @@
         <v>2738</v>
       </c>
       <c r="D22" s="7">
-        <v>2705814</v>
+        <v>2749014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
         <v>4486</v>
       </c>
       <c r="I22" s="7">
-        <v>3197477</v>
+        <v>3077424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>7224</v>
       </c>
       <c r="N22" s="7">
-        <v>5903291</v>
+        <v>5826438</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,7 +6682,7 @@
         <v>3356</v>
       </c>
       <c r="D23" s="7">
-        <v>3363808</v>
+        <v>3434962</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6727,7 +6697,7 @@
         <v>5326</v>
       </c>
       <c r="I23" s="7">
-        <v>3781582</v>
+        <v>3637516</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6742,7 +6712,7 @@
         <v>8682</v>
       </c>
       <c r="N23" s="7">
-        <v>7145390</v>
+        <v>7072478</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
